--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100513.475317938</v>
+        <v>18288765.57156868</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100513.475317938</v>
+        <v>18288765.57156868</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>294122.2832299002</v>
+        <v>35544951.97330032</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>294122.2832299002</v>
+        <v>35544951.97330032</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1602801159.938669</v>
+        <v>17469522.47736474</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19588.38383533205</v>
+        <v>472852.0627046899</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>38442.41904588177</v>
+        <v>817640.025093527</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>57057.67970740932</v>
+        <v>1162427.987482363</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>76048.21092426611</v>
+        <v>1447941.41242918</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>94876.90424691039</v>
+        <v>1807636.613094477</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>113602.9869921849</v>
+        <v>2151757.888038489</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>132323.4932027156</v>
+        <v>2495879.162982499</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>151046.8660966718</v>
+        <v>2840000.437926511</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>170041.5083525582</v>
+        <v>3125761.489638547</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>188870.044843095</v>
+        <v>3485456.690303922</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>207593.5745691578</v>
+        <v>3829577.965248046</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>226316.7906310057</v>
+        <v>4173699.240192154</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>245040.3203570686</v>
+        <v>4517820.515136261</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>264034.8057808471</v>
+        <v>4803581.566848314</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>284000.531633315</v>
+        <v>5033002.94428162</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>35.00000000000534</v>
@@ -27052,13 +27052,13 @@
         <v>16.00000000000539</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>19.00000000000091</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27180,7 +27180,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
